--- a/output/1Y_P59_1VAL-D.xlsx
+++ b/output/1Y_P59_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>13.8476</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>722.1468</v>
       </c>
-      <c r="G2" s="1">
-        <v>722.1468</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1499</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.8476</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1499</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>14.6185</v>
       </c>
+      <c r="E3" s="1">
+        <v>722.1468</v>
+      </c>
       <c r="F3" s="1">
         <v>684.0647</v>
       </c>
-      <c r="G3" s="1">
-        <v>1406.2115</v>
-      </c>
       <c r="H3" s="1">
-        <v>20450.1121</v>
+        <v>10501.9642</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.2226</v>
+        <v>10501.9642</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.8476</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20450.1121</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0252</v>
+        <v>0.0502</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>15.2363</v>
       </c>
+      <c r="E4" s="1">
+        <v>1406.2115</v>
+      </c>
       <c r="F4" s="1">
         <v>656.3273</v>
       </c>
-      <c r="G4" s="1">
-        <v>2062.5388</v>
-      </c>
       <c r="H4" s="1">
-        <v>31262.5199</v>
+        <v>21314.3697</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>14.5452</v>
+        <v>21314.3697</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.2226</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31262.5199</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0267</v>
+        <v>0.0396</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>15.9097</v>
       </c>
+      <c r="E5" s="1">
+        <v>2062.5388</v>
+      </c>
       <c r="F5" s="1">
         <v>628.5474</v>
       </c>
-      <c r="G5" s="1">
-        <v>2691.0862</v>
-      </c>
       <c r="H5" s="1">
-        <v>42592.3595</v>
+        <v>32644.2146</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>14.8639</v>
+        <v>32644.2146</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>14.5452</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42592.3595</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0322</v>
+        <v>0.0425</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>15.3909</v>
       </c>
+      <c r="E6" s="1">
+        <v>2691.0862</v>
+      </c>
       <c r="F6" s="1">
         <v>649.7346</v>
       </c>
-      <c r="G6" s="1">
-        <v>3340.8208</v>
-      </c>
       <c r="H6" s="1">
-        <v>51151.6411</v>
+        <v>41203.4899</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>14.9664</v>
+        <v>41203.4899</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>14.8639</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51151.6411</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0274</v>
+        <v>-0.0338</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>16.1095</v>
       </c>
+      <c r="E7" s="1">
+        <v>3340.8208</v>
+      </c>
       <c r="F7" s="1">
         <v>620.7517</v>
       </c>
-      <c r="G7" s="1">
-        <v>3961.5725</v>
-      </c>
       <c r="H7" s="1">
-        <v>63488.1611</v>
+        <v>53539.9938</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>15.1455</v>
+        <v>53539.9938</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.9664</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>63488.1611</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0382</v>
+        <v>0.0456</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>16.1222</v>
       </c>
+      <c r="E8" s="1">
+        <v>3961.5725</v>
+      </c>
       <c r="F8" s="1">
         <v>620.2627</v>
       </c>
-      <c r="G8" s="1">
-        <v>4581.8353</v>
-      </c>
       <c r="H8" s="1">
-        <v>73486.22289999999</v>
+        <v>63538.0769</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>15.2777</v>
+        <v>63538.0769</v>
       </c>
       <c r="K8" s="1">
+        <v>60000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>15.1455</v>
+      </c>
+      <c r="M8" s="1">
         <v>0.2</v>
       </c>
-      <c r="L8" s="1">
-        <v>713.0830999999999</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-9286.9169</v>
+        <v>601.3477</v>
       </c>
       <c r="O8" s="1">
-        <v>713.0830999999999</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>74199.306</v>
+        <v>-9398.6523</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0097</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>17.3453</v>
       </c>
+      <c r="E9" s="1">
+        <v>4581.8353</v>
+      </c>
       <c r="F9" s="1">
-        <v>584.7473</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5166.5825</v>
+        <v>583.4589</v>
       </c>
       <c r="H9" s="1">
-        <v>89150.93120000001</v>
+        <v>79060.94190000001</v>
       </c>
       <c r="I9" s="1">
-        <v>80142.61659999999</v>
+        <v>601.3477</v>
       </c>
       <c r="J9" s="1">
-        <v>15.5117</v>
+        <v>79662.2896</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70120.26949999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.304</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10142.6166</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>570.4664</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>89721.3977</v>
+        <v>-10120.2695</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.06560000000000001</v>
+        <v>0.0833</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>17.8769</v>
       </c>
+      <c r="E10" s="1">
+        <v>5165.2941</v>
+      </c>
       <c r="F10" s="1">
-        <v>567.3588</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5733.9413</v>
+        <v>566.1088</v>
       </c>
       <c r="H10" s="1">
-        <v>101973.5592</v>
+        <v>91860.62420000001</v>
       </c>
       <c r="I10" s="1">
-        <v>90285.2332</v>
+        <v>481.0782</v>
       </c>
       <c r="J10" s="1">
-        <v>15.7458</v>
+        <v>92341.70239999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80240.53909999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.5346</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10142.6166</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>427.8498</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>102401.409</v>
+        <v>-10120.2695</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0269</v>
+        <v>0.0299</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,38 +1176,38 @@
       <c r="D11" s="1">
         <v>17.8772</v>
       </c>
+      <c r="E11" s="1">
+        <v>5731.4029</v>
+      </c>
       <c r="F11" s="1">
-        <v>567.3493</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6301.2906</v>
+        <v>566.0993</v>
       </c>
       <c r="H11" s="1">
-        <v>112065.3027</v>
+        <v>101930.1349</v>
       </c>
       <c r="I11" s="1">
-        <v>100427.8498</v>
+        <v>360.8086</v>
       </c>
       <c r="J11" s="1">
-        <v>15.9377</v>
+        <v>102290.9435</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90360.8086</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.7659</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10142.6166</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>285.2332</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>112350.5359</v>
+        <v>-10120.2695</v>
       </c>
       <c r="Q11" s="3">
         <v>-0.0005</v>
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>18.1874</v>
       </c>
+      <c r="E12" s="1">
+        <v>6297.5022</v>
+      </c>
       <c r="F12" s="1">
-        <v>557.6727</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6858.9633</v>
+        <v>556.444</v>
       </c>
       <c r="H12" s="1">
-        <v>124099.909</v>
+        <v>113941.3362</v>
       </c>
       <c r="I12" s="1">
-        <v>110570.4664</v>
+        <v>240.5391</v>
       </c>
       <c r="J12" s="1">
-        <v>16.1206</v>
+        <v>114181.8753</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100481.0782</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.9557</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10142.6166</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>142.6166</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>124242.5257</v>
+        <v>-10120.2695</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0155</v>
+        <v>0.0168</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>17.6132</v>
       </c>
+      <c r="E13" s="1">
+        <v>6853.9461</v>
+      </c>
       <c r="F13" s="1">
-        <v>575.8531</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7434.8165</v>
+        <v>574.5844</v>
       </c>
       <c r="H13" s="1">
-        <v>130271.3669</v>
+        <v>120093.4736</v>
       </c>
       <c r="I13" s="1">
-        <v>120713.0831</v>
+        <v>120.2695</v>
       </c>
       <c r="J13" s="1">
-        <v>16.2362</v>
+        <v>120213.7432</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110601.3477</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.1369</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10142.6166</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>130271.3669</v>
+        <v>-10120.2695</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0296</v>
+        <v>-0.032</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>17.806</v>
       </c>
+      <c r="E14" s="1">
+        <v>7428.5305</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7434.8165</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6853.9461</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>131586.7612</v>
       </c>
       <c r="I14" s="1">
-        <v>120713.0831</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.2362</v>
+        <v>131586.7612</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110601.3477</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.8887</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>131698.1082</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>131698.1082</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>131698.1082</v>
+        <v>121408.7459</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0611</v>
+        <v>0.0105</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>13.8476</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>722.1468</v>
       </c>
       <c r="G2" s="1">
-        <v>722.1468</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1499</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.8476</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1499</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>14.6185</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>722.1468</v>
       </c>
       <c r="F3" s="1">
         <v>653.1136</v>
       </c>
       <c r="G3" s="1">
-        <v>1375.2604</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10501.9642</v>
       </c>
       <c r="I3" s="1">
-        <v>19547.5418</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.2137</v>
+        <v>10501.9642</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9547.541800000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.2211</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9547.541800000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>452.4582</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20452.4582</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0253</v>
+        <v>0.0502</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>15.2363</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1375.2604</v>
       </c>
       <c r="F4" s="1">
         <v>603.9838999999999</v>
       </c>
       <c r="G4" s="1">
-        <v>1979.2443</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20845.2351</v>
       </c>
       <c r="I4" s="1">
-        <v>28750.0214</v>
+        <v>452.4582</v>
       </c>
       <c r="J4" s="1">
-        <v>14.5258</v>
+        <v>21297.6933</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18750.0214</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.6338</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9202.4797</v>
       </c>
-      <c r="O4" s="1">
-        <v>1249.9786</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31249.9786</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0262</v>
+        <v>0.0388</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>15.9097</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1979.2443</v>
       </c>
       <c r="F5" s="1">
         <v>548.0505000000001</v>
       </c>
       <c r="G5" s="1">
-        <v>2527.2948</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>31325.8958</v>
       </c>
       <c r="I5" s="1">
-        <v>37469.3398</v>
+        <v>1249.9786</v>
       </c>
       <c r="J5" s="1">
-        <v>14.8259</v>
+        <v>32575.8743</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27469.3398</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.8787</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8719.3184</v>
       </c>
-      <c r="O5" s="1">
-        <v>2530.6602</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42530.6602</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.031</v>
+        <v>0.0408</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>15.3909</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2527.2948</v>
       </c>
       <c r="F6" s="1">
         <v>738.3099</v>
       </c>
       <c r="G6" s="1">
-        <v>3265.6047</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>38695.6632</v>
       </c>
       <c r="I6" s="1">
-        <v>48832.5938</v>
+        <v>2530.6602</v>
       </c>
       <c r="J6" s="1">
-        <v>14.9536</v>
+        <v>41226.3233</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38832.5938</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.3653</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-11363.254</v>
       </c>
-      <c r="O6" s="1">
-        <v>1167.4062</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51167.4062</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.026</v>
+        <v>-0.0317</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>16.1095</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>3265.6047</v>
       </c>
       <c r="F7" s="1">
         <v>478.3114</v>
       </c>
       <c r="G7" s="1">
-        <v>3743.9161</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>52334.5808</v>
       </c>
       <c r="I7" s="1">
-        <v>56537.952</v>
+        <v>1167.4062</v>
       </c>
       <c r="J7" s="1">
-        <v>15.1013</v>
+        <v>53501.987</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>46537.952</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.2509</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-7705.3582</v>
       </c>
-      <c r="O7" s="1">
-        <v>3462.048</v>
-      </c>
-      <c r="P7" s="1">
-        <v>63462.048</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0375</v>
+        <v>0.0444</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>16.1222</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3743.9161</v>
       </c>
       <c r="F8" s="1">
         <v>620.5546000000001</v>
       </c>
       <c r="G8" s="1">
-        <v>4364.4707</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>60047.1733</v>
       </c>
       <c r="I8" s="1">
-        <v>66542.65700000001</v>
+        <v>3462.048</v>
       </c>
       <c r="J8" s="1">
-        <v>15.2464</v>
+        <v>63509.2213</v>
       </c>
       <c r="K8" s="1">
+        <v>56542.657</v>
+      </c>
+      <c r="L8" s="1">
+        <v>15.1025</v>
+      </c>
+      <c r="M8" s="1">
         <v>0.2</v>
       </c>
-      <c r="L8" s="1">
-        <v>673.9049</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-9330.8001</v>
+        <v>587.8088</v>
       </c>
       <c r="O8" s="1">
-        <v>4131.2479</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>74131.2479</v>
+        <v>-9416.896199999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0091</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>17.3453</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4364.4707</v>
       </c>
       <c r="F9" s="1">
         <v>271.786</v>
       </c>
       <c r="G9" s="1">
-        <v>4636.2567</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>75310.2515</v>
       </c>
       <c r="I9" s="1">
-        <v>71256.8662</v>
+        <v>4045.1518</v>
       </c>
       <c r="J9" s="1">
-        <v>15.3695</v>
+        <v>79355.40330000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>61256.8662</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.0353</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-4714.2092</v>
       </c>
-      <c r="O9" s="1">
-        <v>9417.038699999999</v>
-      </c>
-      <c r="P9" s="1">
-        <v>89417.0387</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.06279999999999999</v>
+        <v>0.0795</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>17.8769</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4636.2567</v>
       </c>
       <c r="F10" s="1">
         <v>424.4151</v>
       </c>
       <c r="G10" s="1">
-        <v>5060.6718</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>82452.1162</v>
       </c>
       <c r="I10" s="1">
-        <v>78844.0934</v>
+        <v>9330.9426</v>
       </c>
       <c r="J10" s="1">
-        <v>15.5798</v>
+        <v>91783.0588</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>68844.0934</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>14.8491</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-7587.2271</v>
       </c>
-      <c r="O10" s="1">
-        <v>11829.8115</v>
-      </c>
-      <c r="P10" s="1">
-        <v>101829.8115</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0243</v>
+        <v>0.0272</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>17.8772</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5060.6718</v>
       </c>
       <c r="F11" s="1">
         <v>562.202</v>
       </c>
       <c r="G11" s="1">
-        <v>5622.8739</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>90001.51820000001</v>
       </c>
       <c r="I11" s="1">
-        <v>88894.69130000001</v>
+        <v>11743.7155</v>
       </c>
       <c r="J11" s="1">
-        <v>15.8095</v>
+        <v>101745.2337</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>78894.69130000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.5898</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10050.5979</v>
       </c>
-      <c r="O11" s="1">
-        <v>11779.2136</v>
-      </c>
-      <c r="P11" s="1">
-        <v>111779.2136</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0005</v>
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>18.1874</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5622.8739</v>
       </c>
       <c r="F12" s="1">
         <v>456.7919</v>
       </c>
       <c r="G12" s="1">
-        <v>6079.6657</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>101735.2189</v>
       </c>
       <c r="I12" s="1">
-        <v>97202.54790000001</v>
+        <v>11693.1176</v>
       </c>
       <c r="J12" s="1">
-        <v>15.9881</v>
+        <v>113428.3364</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>87202.54790000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.5085</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-8307.856599999999</v>
       </c>
-      <c r="O12" s="1">
-        <v>13471.357</v>
-      </c>
-      <c r="P12" s="1">
-        <v>123471.357</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0139</v>
+        <v>0.0151</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>17.6132</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6079.6657</v>
       </c>
       <c r="F13" s="1">
         <v>768.9457</v>
       </c>
       <c r="G13" s="1">
-        <v>6848.6114</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>106526.687</v>
       </c>
       <c r="I13" s="1">
-        <v>110746.1426</v>
+        <v>13385.2609</v>
       </c>
       <c r="J13" s="1">
-        <v>16.1706</v>
+        <v>119911.9479</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>100746.1426</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.571</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-13543.5947</v>
       </c>
-      <c r="O13" s="1">
-        <v>9927.7623</v>
-      </c>
-      <c r="P13" s="1">
-        <v>129927.7623</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0265</v>
+        <v>-0.0285</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>17.806</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6848.6114</v>
       </c>
       <c r="F14" s="1">
         <v>-6848.6114</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>121314.2485</v>
       </c>
       <c r="I14" s="1">
-        <v>110746.1426</v>
+        <v>9841.666300000001</v>
       </c>
       <c r="J14" s="1">
-        <v>16.1706</v>
+        <v>131155.9148</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>100746.1426</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.7104</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>121314.2485</v>
       </c>
-      <c r="O14" s="1">
-        <v>131242.0109</v>
-      </c>
-      <c r="P14" s="1">
-        <v>131242.0109</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0621</v>
+        <v>0.009599999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>13.8476</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>722.1468</v>
       </c>
       <c r="G2" s="1">
-        <v>722.1468</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1499</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.8476</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1499</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>14.6185</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>722.1468</v>
       </c>
       <c r="F3" s="1">
         <v>656.5518</v>
       </c>
       <c r="G3" s="1">
-        <v>1378.6986</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10501.9642</v>
       </c>
       <c r="I3" s="1">
-        <v>19597.8024</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.2147</v>
+        <v>10501.9642</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9597.8024</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.2907</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9597.8024</v>
       </c>
-      <c r="O3" s="1">
-        <v>402.1976</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20452.1976</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0253</v>
+        <v>0.0502</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>15.2363</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1378.6986</v>
       </c>
       <c r="F4" s="1">
         <v>610.4584</v>
       </c>
       <c r="G4" s="1">
-        <v>1989.157</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>20897.3482</v>
       </c>
       <c r="I4" s="1">
-        <v>28898.9305</v>
+        <v>402.1976</v>
       </c>
       <c r="J4" s="1">
-        <v>14.5282</v>
+        <v>21299.5458</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18898.9305</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.7078</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9301.1281</v>
       </c>
-      <c r="O4" s="1">
-        <v>1101.0695</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31251.3195</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0262</v>
+        <v>0.0389</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>15.9097</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1989.157</v>
       </c>
       <c r="F5" s="1">
         <v>557.1557</v>
       </c>
       <c r="G5" s="1">
-        <v>2546.3128</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>31482.7863</v>
       </c>
       <c r="I5" s="1">
-        <v>37763.1107</v>
+        <v>1101.0695</v>
       </c>
       <c r="J5" s="1">
-        <v>14.8305</v>
+        <v>32583.8559</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27763.1107</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.9572</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8864.1803</v>
       </c>
-      <c r="O5" s="1">
-        <v>2236.8893</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42537.8905</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0312</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>15.3909</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2546.3128</v>
       </c>
       <c r="F6" s="1">
         <v>752.1117</v>
       </c>
       <c r="G6" s="1">
-        <v>3298.4244</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>38986.8492</v>
       </c>
       <c r="I6" s="1">
-        <v>49338.7863</v>
+        <v>2236.8893</v>
       </c>
       <c r="J6" s="1">
-        <v>14.9583</v>
+        <v>41223.7385</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39338.7863</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.4493</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-11575.6755</v>
       </c>
-      <c r="O6" s="1">
-        <v>661.2137</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51163.72</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0262</v>
+        <v>-0.0319</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>16.1095</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3298.4244</v>
       </c>
       <c r="F7" s="1">
         <v>492.6038</v>
       </c>
       <c r="G7" s="1">
-        <v>3791.0283</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>52860.5499</v>
       </c>
       <c r="I7" s="1">
-        <v>57274.3876</v>
+        <v>661.2137</v>
       </c>
       <c r="J7" s="1">
-        <v>15.1079</v>
+        <v>53521.7636</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>47274.3876</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.3324</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-7935.6013</v>
       </c>
-      <c r="O7" s="1">
-        <v>2725.6124</v>
-      </c>
-      <c r="P7" s="1">
-        <v>63480.6312</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0379</v>
+        <v>0.0449</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>16.1222</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3791.0283</v>
       </c>
       <c r="F8" s="1">
         <v>639.4578</v>
       </c>
       <c r="G8" s="1">
-        <v>4430.4861</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>60802.7857</v>
       </c>
       <c r="I8" s="1">
-        <v>67583.8544</v>
+        <v>2725.6124</v>
       </c>
       <c r="J8" s="1">
-        <v>15.2543</v>
+        <v>63528.3981</v>
       </c>
       <c r="K8" s="1">
+        <v>57583.8544</v>
+      </c>
+      <c r="L8" s="1">
+        <v>15.1895</v>
+      </c>
+      <c r="M8" s="1">
         <v>0.2</v>
       </c>
-      <c r="L8" s="1">
-        <v>682.3851</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-9627.081700000001</v>
+        <v>593.7164</v>
       </c>
       <c r="O8" s="1">
-        <v>3098.5307</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>74157.32460000001</v>
+        <v>-9715.750400000001</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0092</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>17.3453</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4430.4861</v>
       </c>
       <c r="F9" s="1">
         <v>287.7215</v>
       </c>
       <c r="G9" s="1">
-        <v>4718.2076</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>76449.36629999999</v>
       </c>
       <c r="I9" s="1">
-        <v>72574.4709</v>
+        <v>3009.862</v>
       </c>
       <c r="J9" s="1">
-        <v>15.3818</v>
+        <v>79459.2283</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>62574.4709</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.1236</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-4990.6165</v>
       </c>
-      <c r="O9" s="1">
-        <v>8107.9142</v>
-      </c>
-      <c r="P9" s="1">
-        <v>89522.00199999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.06370000000000001</v>
+        <v>0.08069999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>17.8769</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4718.2076</v>
       </c>
       <c r="F10" s="1">
         <v>444.8674</v>
       </c>
       <c r="G10" s="1">
-        <v>5163.075</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>83909.54790000001</v>
       </c>
       <c r="I10" s="1">
-        <v>80527.32060000001</v>
+        <v>8019.2455</v>
       </c>
       <c r="J10" s="1">
-        <v>15.5968</v>
+        <v>91928.7933</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>70527.32060000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>14.9479</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-7952.8496</v>
       </c>
-      <c r="O10" s="1">
-        <v>10155.0645</v>
-      </c>
-      <c r="P10" s="1">
-        <v>101976.2228</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0247</v>
+        <v>0.0276</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>17.8772</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5163.075</v>
       </c>
       <c r="F11" s="1">
         <v>588.0152</v>
       </c>
       <c r="G11" s="1">
-        <v>5751.0902</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>91822.7072</v>
       </c>
       <c r="I11" s="1">
-        <v>91039.3864</v>
+        <v>10066.3958</v>
       </c>
       <c r="J11" s="1">
-        <v>15.8299</v>
+        <v>101889.103</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>81039.3864</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.696</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10512.0659</v>
       </c>
-      <c r="O11" s="1">
-        <v>9642.998600000001</v>
-      </c>
-      <c r="P11" s="1">
-        <v>111923.2627</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0005</v>
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>18.1874</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5751.0902</v>
       </c>
       <c r="F12" s="1">
         <v>482.87</v>
       </c>
       <c r="G12" s="1">
-        <v>6233.9602</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>104055.0505</v>
       </c>
       <c r="I12" s="1">
-        <v>99821.53599999999</v>
+        <v>9554.33</v>
       </c>
       <c r="J12" s="1">
-        <v>16.0125</v>
+        <v>113609.3805</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>89821.53599999999</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.6182</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-8782.1495</v>
       </c>
-      <c r="O12" s="1">
-        <v>10860.8491</v>
-      </c>
-      <c r="P12" s="1">
-        <v>123652.5145</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0142</v>
+        <v>0.0154</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>17.6132</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6233.9602</v>
       </c>
       <c r="F13" s="1">
         <v>806.1626</v>
       </c>
       <c r="G13" s="1">
-        <v>7040.1228</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>109230.2039</v>
       </c>
       <c r="I13" s="1">
-        <v>114020.639</v>
+        <v>10772.1804</v>
       </c>
       <c r="J13" s="1">
-        <v>16.1958</v>
+        <v>120002.3844</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>104020.639</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.6861</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-14199.1031</v>
       </c>
-      <c r="O13" s="1">
-        <v>6661.7461</v>
-      </c>
-      <c r="P13" s="1">
-        <v>130017.3698</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0272</v>
+        <v>-0.0292</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>17.806</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7040.1228</v>
       </c>
       <c r="F14" s="1">
         <v>-7040.1228</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>124706.6233</v>
       </c>
       <c r="I14" s="1">
-        <v>114020.639</v>
+        <v>6573.0774</v>
       </c>
       <c r="J14" s="1">
-        <v>16.1958</v>
+        <v>131279.7007</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>104020.639</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.7754</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>124706.6233</v>
       </c>
-      <c r="O14" s="1">
-        <v>131368.3694</v>
-      </c>
-      <c r="P14" s="1">
-        <v>131368.3694</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0618</v>
+        <v>0.0098</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>13.8476</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>722.1468</v>
       </c>
       <c r="G2" s="1">
-        <v>722.1468</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1499</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.8476</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1499</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>14.6185</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>722.1468</v>
       </c>
       <c r="F3" s="1">
         <v>659.9899</v>
       </c>
       <c r="G3" s="1">
-        <v>1382.1367</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10501.9642</v>
       </c>
       <c r="I3" s="1">
-        <v>19648.063</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.2157</v>
+        <v>10501.9642</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9648.063</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.3603</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9648.063</v>
       </c>
-      <c r="O3" s="1">
-        <v>351.937</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20451.937</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0253</v>
+        <v>0.0502</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>15.2363</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1382.1367</v>
       </c>
       <c r="F4" s="1">
         <v>616.966</v>
       </c>
       <c r="G4" s="1">
-        <v>1999.1027</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>20949.4612</v>
       </c>
       <c r="I4" s="1">
-        <v>29048.3421</v>
+        <v>351.937</v>
       </c>
       <c r="J4" s="1">
-        <v>14.5307</v>
+        <v>21301.3982</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19048.3421</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.7818</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9400.2791</v>
       </c>
-      <c r="O4" s="1">
-        <v>951.6579</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31252.6579</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0263</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>15.9097</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1999.1027</v>
       </c>
       <c r="F5" s="1">
         <v>566.3548</v>
       </c>
       <c r="G5" s="1">
-        <v>2565.4576</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>31640.1989</v>
       </c>
       <c r="I5" s="1">
-        <v>38058.8774</v>
+        <v>951.6579</v>
       </c>
       <c r="J5" s="1">
-        <v>14.8351</v>
+        <v>32591.8569</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28058.8774</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>14.0357</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9010.5353</v>
       </c>
-      <c r="O5" s="1">
-        <v>1941.1226</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42545.1326</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0313</v>
+        <v>0.0412</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>15.3909</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2565.4576</v>
       </c>
       <c r="F6" s="1">
         <v>766.1156</v>
       </c>
       <c r="G6" s="1">
-        <v>3331.5732</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>39279.9773</v>
       </c>
       <c r="I6" s="1">
-        <v>49850.0862</v>
+        <v>1941.1226</v>
       </c>
       <c r="J6" s="1">
-        <v>14.9629</v>
+        <v>41221.0999</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39850.0862</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.5333</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-11791.2088</v>
       </c>
-      <c r="O6" s="1">
-        <v>149.9138</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51159.9639</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0264</v>
+        <v>-0.0322</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>16.1095</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3331.5732</v>
       </c>
       <c r="F7" s="1">
         <v>507.1982</v>
       </c>
       <c r="G7" s="1">
-        <v>3838.7714</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>53391.7918</v>
       </c>
       <c r="I7" s="1">
-        <v>58020.7961</v>
+        <v>149.9138</v>
       </c>
       <c r="J7" s="1">
-        <v>15.1144</v>
+        <v>53541.7056</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>48020.7961</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.4139</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8170.7099</v>
       </c>
-      <c r="O7" s="1">
-        <v>1979.2039</v>
-      </c>
-      <c r="P7" s="1">
-        <v>63499.3545</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0383</v>
+        <v>0.0453</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>16.1222</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3838.7714</v>
       </c>
       <c r="F8" s="1">
         <v>658.8376</v>
       </c>
       <c r="G8" s="1">
-        <v>4497.609</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>61568.5191</v>
       </c>
       <c r="I8" s="1">
-        <v>68642.70789999999</v>
+        <v>1979.2039</v>
       </c>
       <c r="J8" s="1">
-        <v>15.262</v>
+        <v>63547.723</v>
       </c>
       <c r="K8" s="1">
+        <v>58642.7079</v>
+      </c>
+      <c r="L8" s="1">
+        <v>15.2764</v>
+      </c>
+      <c r="M8" s="1">
         <v>0.2</v>
       </c>
-      <c r="L8" s="1">
-        <v>690.9789</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-9930.933000000001</v>
+        <v>599.6832000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>2048.271</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>74183.6231</v>
+        <v>-10022.2286</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.009299999999999999</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>17.3453</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4497.609</v>
       </c>
       <c r="F9" s="1">
         <v>304.2029</v>
       </c>
       <c r="G9" s="1">
-        <v>4801.8119</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>77607.59299999999</v>
       </c>
       <c r="I9" s="1">
-        <v>73919.1988</v>
+        <v>1956.9753</v>
       </c>
       <c r="J9" s="1">
-        <v>15.394</v>
+        <v>79564.5683</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>63919.1988</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.2118</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-5276.4909</v>
       </c>
-      <c r="O9" s="1">
-        <v>6771.7801</v>
-      </c>
-      <c r="P9" s="1">
-        <v>89628.4857</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.06469999999999999</v>
+        <v>0.0818</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>17.8769</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4801.8119</v>
       </c>
       <c r="F10" s="1">
         <v>466.0816</v>
       </c>
       <c r="G10" s="1">
-        <v>5267.8936</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>85396.38400000001</v>
       </c>
       <c r="I10" s="1">
-        <v>82251.2933</v>
+        <v>6680.4844</v>
       </c>
       <c r="J10" s="1">
-        <v>15.6137</v>
+        <v>92076.86840000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>72251.2933</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.0467</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-8332.094499999999</v>
       </c>
-      <c r="O10" s="1">
-        <v>8439.685600000001</v>
-      </c>
-      <c r="P10" s="1">
-        <v>102124.9583</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0251</v>
+        <v>0.0281</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>17.8772</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5267.8936</v>
       </c>
       <c r="F11" s="1">
         <v>614.8766000000001</v>
       </c>
       <c r="G11" s="1">
-        <v>5882.7701</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>93686.85309999999</v>
       </c>
       <c r="I11" s="1">
-        <v>93243.5647</v>
+        <v>8348.3899</v>
       </c>
       <c r="J11" s="1">
-        <v>15.8503</v>
+        <v>102035.243</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>83243.5647</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.8021</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10992.2714</v>
       </c>
-      <c r="O11" s="1">
-        <v>7447.4142</v>
-      </c>
-      <c r="P11" s="1">
-        <v>112069.5396</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0005</v>
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>18.1874</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5882.7701</v>
       </c>
       <c r="F12" s="1">
         <v>510.1834</v>
       </c>
       <c r="G12" s="1">
-        <v>6392.9535</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>106437.5483</v>
       </c>
       <c r="I12" s="1">
-        <v>102522.4734</v>
+        <v>7356.1185</v>
       </c>
       <c r="J12" s="1">
-        <v>16.0368</v>
+        <v>113793.6668</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>92522.4734</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.7277</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-9278.9087</v>
       </c>
-      <c r="O12" s="1">
-        <v>8168.5055</v>
-      </c>
-      <c r="P12" s="1">
-        <v>123836.8522</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0145</v>
+        <v>0.0157</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>17.6132</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6392.9535</v>
       </c>
       <c r="F13" s="1">
         <v>845.1745</v>
       </c>
       <c r="G13" s="1">
-        <v>7238.1279</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>112016.0523</v>
       </c>
       <c r="I13" s="1">
-        <v>117408.7001</v>
+        <v>8077.2098</v>
       </c>
       <c r="J13" s="1">
-        <v>16.2209</v>
+        <v>120093.2622</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>107408.7001</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.8011</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-14886.2267</v>
       </c>
-      <c r="O13" s="1">
-        <v>3282.2788</v>
-      </c>
-      <c r="P13" s="1">
-        <v>130107.3089</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0279</v>
+        <v>-0.0299</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>17.806</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7238.1279</v>
       </c>
       <c r="F14" s="1">
         <v>-7238.1279</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>128214.0269</v>
       </c>
       <c r="I14" s="1">
-        <v>117408.7001</v>
+        <v>3190.9831</v>
       </c>
       <c r="J14" s="1">
-        <v>16.2209</v>
+        <v>131405.01</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>107408.7001</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.8393</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>128214.0269</v>
       </c>
-      <c r="O14" s="1">
-        <v>131496.3056</v>
-      </c>
-      <c r="P14" s="1">
-        <v>131496.3056</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0615</v>
+        <v>0.0101</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>13.8476</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>722.1468</v>
       </c>
       <c r="G2" s="1">
-        <v>722.1468</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1499</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.8476</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1499</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>14.6185</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>722.1468</v>
       </c>
       <c r="F3" s="1">
         <v>663.4281</v>
       </c>
       <c r="G3" s="1">
-        <v>1385.5749</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10501.9642</v>
       </c>
       <c r="I3" s="1">
-        <v>19698.3236</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.2167</v>
+        <v>10501.9642</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9698.3236</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.4299</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9698.3236</v>
       </c>
-      <c r="O3" s="1">
-        <v>301.6764</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20451.6764</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0252</v>
+        <v>0.0502</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>15.2363</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1385.5749</v>
       </c>
       <c r="F4" s="1">
         <v>623.5065</v>
       </c>
       <c r="G4" s="1">
-        <v>2009.0814</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>21001.5743</v>
       </c>
       <c r="I4" s="1">
-        <v>29198.2563</v>
+        <v>301.6764</v>
       </c>
       <c r="J4" s="1">
-        <v>14.5331</v>
+        <v>21303.2507</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19198.2563</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.8558</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9499.932699999999</v>
       </c>
-      <c r="O4" s="1">
-        <v>801.7437</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31253.9937</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0263</v>
+        <v>0.0391</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>15.9097</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>2009.0814</v>
       </c>
       <c r="F5" s="1">
         <v>575.6482999999999</v>
       </c>
       <c r="G5" s="1">
-        <v>2584.7297</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>31798.1337</v>
       </c>
       <c r="I5" s="1">
-        <v>38356.6474</v>
+        <v>801.7437</v>
       </c>
       <c r="J5" s="1">
-        <v>14.8397</v>
+        <v>32599.8774</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28356.6474</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>14.1142</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9158.391100000001</v>
       </c>
-      <c r="O5" s="1">
-        <v>1643.3526</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42552.3864</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0315</v>
+        <v>0.0414</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>15.3909</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2584.7297</v>
       </c>
       <c r="F6" s="1">
         <v>756.5089</v>
       </c>
       <c r="G6" s="1">
-        <v>3341.2386</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51158.038</v>
+        <v>39575.0548</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>1643.3526</v>
       </c>
       <c r="J6" s="1">
-        <v>14.9645</v>
+        <v>41218.4074</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.4755</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-11643.3526</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51158.038</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0265</v>
+        <v>-0.0324</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>16.1095</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3341.2386</v>
       </c>
       <c r="F7" s="1">
         <v>545.9141</v>
       </c>
       <c r="G7" s="1">
-        <v>3887.1527</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>53546.6894</v>
       </c>
       <c r="I7" s="1">
-        <v>58794.4037</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>15.1253</v>
+        <v>53546.6894</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>48794.4037</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.6037</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8794.403700000001</v>
       </c>
-      <c r="O7" s="1">
-        <v>1205.5963</v>
-      </c>
-      <c r="P7" s="1">
-        <v>63501.1056</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0383</v>
+        <v>0.0455</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>16.1222</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3887.1527</v>
       </c>
       <c r="F8" s="1">
         <v>678.7035</v>
       </c>
       <c r="G8" s="1">
-        <v>4565.8562</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>62344.4874</v>
       </c>
       <c r="I8" s="1">
-        <v>69736.5978</v>
+        <v>1205.5963</v>
       </c>
       <c r="J8" s="1">
-        <v>15.2735</v>
+        <v>63550.0837</v>
       </c>
       <c r="K8" s="1">
+        <v>59736.5978</v>
+      </c>
+      <c r="L8" s="1">
+        <v>15.3677</v>
+      </c>
+      <c r="M8" s="1">
         <v>0.2</v>
       </c>
-      <c r="L8" s="1">
-        <v>699.6875</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-10242.5066</v>
+        <v>601.4229</v>
       </c>
       <c r="O8" s="1">
-        <v>963.0897</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>74193.0316</v>
+        <v>-10340.7712</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0094</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>17.3453</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4565.8562</v>
       </c>
       <c r="F9" s="1">
         <v>321.2446</v>
       </c>
       <c r="G9" s="1">
-        <v>4887.1008</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>78785.21920000001</v>
       </c>
       <c r="I9" s="1">
-        <v>75308.6817</v>
+        <v>864.8251</v>
       </c>
       <c r="J9" s="1">
-        <v>15.4097</v>
+        <v>79650.04429999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>65308.6817</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.3037</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-5572.0839</v>
       </c>
-      <c r="O9" s="1">
-        <v>5391.0058</v>
-      </c>
-      <c r="P9" s="1">
-        <v>89719.39690000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.06560000000000001</v>
+        <v>0.0829</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>17.8769</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4887.1008</v>
       </c>
       <c r="F10" s="1">
         <v>488.0815</v>
       </c>
       <c r="G10" s="1">
-        <v>5375.1823</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>95593.31690000001</v>
+        <v>86913.1787</v>
       </c>
       <c r="I10" s="1">
-        <v>84034.06510000001</v>
+        <v>5292.7413</v>
       </c>
       <c r="J10" s="1">
-        <v>15.6337</v>
+        <v>92205.92</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>74034.06510000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.1489</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-8725.383400000001</v>
       </c>
-      <c r="O10" s="1">
-        <v>6665.6224</v>
-      </c>
-      <c r="P10" s="1">
-        <v>102258.9394</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0255</v>
+        <v>0.0285</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>17.8772</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5375.1823</v>
       </c>
       <c r="F11" s="1">
         <v>642.8231</v>
       </c>
       <c r="G11" s="1">
-        <v>6018.0054</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>107027.2167</v>
+        <v>95594.9295</v>
       </c>
       <c r="I11" s="1">
-        <v>95525.942</v>
+        <v>6567.3579</v>
       </c>
       <c r="J11" s="1">
-        <v>15.8734</v>
+        <v>102162.2874</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>85525.942</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.9113</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-11491.8769</v>
       </c>
-      <c r="O11" s="1">
-        <v>5173.7455</v>
-      </c>
-      <c r="P11" s="1">
-        <v>112200.9622</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0005</v>
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>18.1874</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>6018.0054</v>
       </c>
       <c r="F12" s="1">
         <v>538.7828</v>
       </c>
       <c r="G12" s="1">
-        <v>6556.7882</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>118632.6249</v>
+        <v>108884.3731</v>
       </c>
       <c r="I12" s="1">
-        <v>105325.001</v>
+        <v>5075.481</v>
       </c>
       <c r="J12" s="1">
-        <v>16.0635</v>
+        <v>113959.8541</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>95325.001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.84</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-9799.058999999999</v>
       </c>
-      <c r="O12" s="1">
-        <v>5374.6865</v>
-      </c>
-      <c r="P12" s="1">
-        <v>124007.3114</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0148</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>17.6132</v>
       </c>
       <c r="E13" s="1">
+        <v>6556.7882</v>
+      </c>
+      <c r="F13" s="1">
+        <v>867.328</v>
+      </c>
+      <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
-      <c r="F13" s="1">
-        <v>872.9071</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7429.6953</v>
-      </c>
       <c r="H13" s="1">
-        <v>130181.6346</v>
+        <v>114886.7318</v>
       </c>
       <c r="I13" s="1">
-        <v>120699.6875</v>
+        <v>5276.422</v>
       </c>
       <c r="J13" s="1">
-        <v>16.2456</v>
+        <v>120163.1538</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110601.4229</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.8682</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-15374.6865</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>130181.6346</v>
+        <v>-15276.422</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0285</v>
+        <v>-0.0306</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>17.806</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7424.1162</v>
       </c>
       <c r="F14" s="1">
-        <v>-7429.6953</v>
+        <v>-7424.1162</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>131508.5679</v>
       </c>
       <c r="I14" s="1">
-        <v>120699.6875</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.2456</v>
+        <v>131508.5679</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110601.4229</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.8976</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>131607.3932</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>131607.3932</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>131607.3932</v>
+        <v>131508.5679</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0612</v>
+        <v>0.0103</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>17.758</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>16.2362</v>
+        <v>14.8887</v>
       </c>
       <c r="D3" s="1">
-        <v>16.1706</v>
+        <v>14.7104</v>
       </c>
       <c r="E3" s="1">
-        <v>16.1958</v>
+        <v>14.7754</v>
       </c>
       <c r="F3" s="1">
-        <v>16.2209</v>
+        <v>14.8393</v>
       </c>
       <c r="G3" s="1">
-        <v>16.2456</v>
+        <v>14.8976</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.2603</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1213</v>
+        <v>0.2522</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1151</v>
+        <v>0.2452</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1168</v>
+        <v>0.2471</v>
       </c>
       <c r="F4" s="3">
-        <v>0.1185</v>
+        <v>0.249</v>
       </c>
       <c r="G4" s="3">
-        <v>0.1199</v>
+        <v>0.2505</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.112</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1155</v>
+        <v>0.1143</v>
       </c>
       <c r="D5" s="3">
+        <v>0.1089</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.1101</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.1113</v>
+      </c>
+      <c r="G5" s="3">
         <v>0.1124</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.1131</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.1138</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.1145</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>2.1416</v>
       </c>
       <c r="C6" s="4">
-        <v>0.8747</v>
+        <v>2.029</v>
       </c>
       <c r="D6" s="4">
-        <v>0.8431999999999999</v>
+        <v>2.0648</v>
       </c>
       <c r="E6" s="4">
-        <v>0.8527</v>
+        <v>2.0598</v>
       </c>
       <c r="F6" s="4">
-        <v>0.8621</v>
+        <v>2.0547</v>
       </c>
       <c r="G6" s="4">
-        <v>0.8696</v>
+        <v>2.0474</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1853</v>
+        <v>0.0218</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1949</v>
+        <v>0.1932</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1934</v>
+        <v>0.1917</v>
       </c>
       <c r="F7" s="3">
-        <v>0.1919</v>
+        <v>0.1902</v>
       </c>
       <c r="G7" s="3">
-        <v>0.1901</v>
+        <v>0.1883</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>713.0830999999999</v>
+        <v>601.3477</v>
       </c>
       <c r="D8" s="1">
-        <v>673.9049</v>
+        <v>587.8088</v>
       </c>
       <c r="E8" s="1">
-        <v>682.3851</v>
+        <v>593.7164</v>
       </c>
       <c r="F8" s="1">
-        <v>690.9789</v>
+        <v>599.6832000000001</v>
       </c>
       <c r="G8" s="1">
-        <v>699.6875</v>
+        <v>601.4229</v>
       </c>
     </row>
   </sheetData>
